--- a/Load/ontology/Gates/GEMS1A/doc/raw_detection_gems1a.xlsx
+++ b/Load/ontology/Gates/GEMS1A/doc/raw_detection_gems1a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindsabr\Desktop\Git\ApiCommonData\ApiCommonData\Load\ontology\Gates\GEMS1A\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6182A4-C87F-4386-95DC-290EE978C8AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0093171-900A-4D0E-982B-92AF2BFEC52E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="1826" windowWidth="25671" windowHeight="15325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9231" yWindow="626" windowWidth="23915" windowHeight="15497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
   <si>
     <t>variable</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>Strongyloides stercoralis</t>
+  </si>
+  <si>
+    <t>F16_VIB_01</t>
+  </si>
+  <si>
+    <t>F16_VIB_0139</t>
+  </si>
+  <si>
+    <t>F16_VIB_ELTORCLASS</t>
+  </si>
+  <si>
+    <t>F16_VIB_INABAOGAWA</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae 01</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae 0139</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae 01 El Tor</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae Inaba or Ogawa</t>
   </si>
 </sst>
 </file>
@@ -1111,18 +1135,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.4140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
@@ -1284,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N14" si="0">TRIM(IF($H4="",$G4,"")
+        <f t="shared" ref="N4:N18" si="0">TRIM(IF($H4="",$G4,"")
 &amp;IF($H4&lt;&gt;"",$H4,"")
 &amp;IF($I4&lt;&gt;""," "&amp;$I4,"")
 &amp;IF(OR($I4="LT",$I4="ST",AND($D4="",$I4&lt;&gt;"")),"-pos","")
@@ -1295,7 +1319,7 @@
         <v>Escherichia coli, by bacteriology result</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O14" si="1">TRIM("Raw "&amp;LOWER($E4)&amp;" data for "&amp;$B4)</f>
+        <f t="shared" ref="O4:O18" si="1">TRIM("Raw "&amp;LOWER($E4)&amp;" data for "&amp;$B4)</f>
         <v>Raw bacteria data for stool</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1677,6 +1701,118 @@
       </c>
       <c r="R14" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Vibrio cholerae 01, by bacteriology result</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Raw bacteria data for stool</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Vibrio cholerae 0139, by bacteriology result</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Raw bacteria data for stool</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Vibrio cholerae 01 El Tor, by bacteriology result</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Raw bacteria data for stool</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Vibrio cholerae Inaba or Ogawa, by bacteriology result</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Raw bacteria data for stool</v>
       </c>
     </row>
   </sheetData>
